--- a/data/trans_dic/P16A05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,19</t>
+          <t>1,69; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,0</t>
+          <t>1,66; 6,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,42</t>
+          <t>2,52; 6,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,42</t>
+          <t>2,37; 5,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,63</t>
+          <t>1,93; 6,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,03</t>
+          <t>1,8; 6,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,46</t>
+          <t>1,53; 5,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,52</t>
+          <t>1,75; 4,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,76</t>
+          <t>2,3; 5,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,97</t>
+          <t>2,06; 5,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,27</t>
+          <t>2,56; 5,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,59</t>
+          <t>2,43; 4,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,42</t>
+          <t>0,52; 3,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,47</t>
+          <t>1,99; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,37</t>
+          <t>1,55; 5,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,12</t>
+          <t>1,84; 5,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,2</t>
+          <t>2,37; 6,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,31</t>
+          <t>3,19; 8,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,72</t>
+          <t>2,14; 6,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,39</t>
+          <t>4,37; 8,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,36</t>
+          <t>1,74; 4,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,36</t>
+          <t>3,1; 6,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,04</t>
+          <t>2,27; 5,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,0</t>
+          <t>3,37; 5,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,03</t>
+          <t>1,52; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,83</t>
+          <t>3,08; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,71</t>
+          <t>1,69; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,12</t>
+          <t>1,4; 7,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,41</t>
+          <t>2,28; 8,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,81</t>
+          <t>6,15; 13,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,68</t>
+          <t>5,02; 13,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,52</t>
+          <t>7,45; 14,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,66</t>
+          <t>2,03; 4,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,94</t>
+          <t>4,62; 8,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,18</t>
+          <t>3,06; 6,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 8,34</t>
+          <t>2,04; 8,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,56</t>
+          <t>1,77; 3,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,27</t>
+          <t>2,13; 4,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,12</t>
+          <t>2,68; 5,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,61</t>
+          <t>3,28; 5,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,33</t>
+          <t>3,63; 6,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,82</t>
+          <t>4,83; 8,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 9,46</t>
+          <t>5,99; 9,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,59</t>
+          <t>3,13; 8,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,51</t>
+          <t>2,75; 4,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,66</t>
+          <t>3,51; 5,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,5</t>
+          <t>4,34; 6,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,28</t>
+          <t>3,66; 6,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,3</t>
+          <t>2,19; 6,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,37</t>
+          <t>1,62; 4,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,1</t>
+          <t>2,94; 6,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,88</t>
+          <t>4,33; 8,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,17</t>
+          <t>4,95; 9,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,07</t>
+          <t>6,71; 10,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,14</t>
+          <t>9,28; 14,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,28</t>
+          <t>7,99; 13,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,65</t>
+          <t>4,33; 7,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 7,62</t>
+          <t>4,87; 7,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,81</t>
+          <t>6,78; 9,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 10,93</t>
+          <t>7,35; 10,67</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,96</t>
+          <t>0,33; 3,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,19</t>
+          <t>0,38; 4,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,98</t>
+          <t>0,68; 3,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,32</t>
+          <t>1,1; 6,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,97</t>
+          <t>4,48; 7,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,32</t>
+          <t>5,84; 9,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,49</t>
+          <t>5,74; 9,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,33</t>
+          <t>8,76; 12,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,86</t>
+          <t>3,8; 5,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,77</t>
+          <t>4,97; 7,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,61</t>
+          <t>4,91; 7,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,16</t>
+          <t>7,2; 10,14</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,14</t>
+          <t>2,06; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,0</t>
+          <t>2,65; 4,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,22</t>
+          <t>2,89; 4,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,91</t>
+          <t>3,29; 4,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,1</t>
+          <t>4,5; 6,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 8,0</t>
+          <t>6,34; 8,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 8,58</t>
+          <t>6,72; 8,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 8,95</t>
+          <t>6,51; 8,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,45</t>
+          <t>3,47; 4,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 5,81</t>
+          <t>4,67; 5,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,21</t>
+          <t>5,03; 6,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,77</t>
+          <t>5,15; 6,81</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15072</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14027</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17602</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18383</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11139</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10790</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11115</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13375</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26211</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24817</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28716</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31759</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7998; 25310</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7262; 26484</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10805; 28605</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11976; 28128</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5931; 19262</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5675; 19516</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5312; 19360</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7843; 20224</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17928; 39537</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15452; 39825</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19873; 39520</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23186; 44126</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5402</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15994</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11045</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14358</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14876</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17816</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15066</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23572</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20278</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33811</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26111</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>37929</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1904; 13109</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8286; 27471</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5866; 20863</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8300; 22666</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8815; 23855</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10697; 27277</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7975; 25020</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16715; 31803</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12820; 30232</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23289; 49552</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17039; 39882</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28114; 49894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29594</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15076</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26968</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7880</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24856</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15090</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17537</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21766</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>54450</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30166</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44505</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8271; 22007</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19373; 42628</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8813; 24756</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9335; 48028</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3828; 14944</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15934; 35471</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8334; 23052</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12394; 24494</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14389; 31784</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40979; 73270</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21021; 42876</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17007; 68447</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31968</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35066</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>42649</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45009</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37277</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51883</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63323</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69245</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86950</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>105972</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>106458</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21953; 43667</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24648; 49574</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30798; 59030</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33917; 59062</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25936; 49517</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36994; 67158</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49485; 81283</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30547; 82129</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>53715; 86021</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>67581; 109352</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>85764; 127626</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73665; 128161</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13807</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14181</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26715</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29838</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>64511</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>85288</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89876</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>52770</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>78692</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>112003</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>119714</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7659; 22693</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8268; 22533</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18269; 37351</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20482; 42244</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>28157; 52106</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>50854; 80450</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>68517; 105035</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>67056; 110298</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39748; 68297</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>61819; 95918</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>92125; 133882</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96506; 140068</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6475</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>68929</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>81984</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>79567</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>78741</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>73346</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>85897</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>84645</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>85216</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>993; 10978</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>999; 12124</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1951; 11052</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2642; 14997</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>55885; 88254</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>64647; 101710</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>62095; 99914</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>66574; 95403</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>58787; 91478</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>68151; 106545</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>67242; 105765</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>72083; 101510</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>84552</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>112774</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>118165</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>141030</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>179065</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>251842</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>269447</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>284551</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>263617</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>364616</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>387612</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>425581</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>67332; 104432</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>90444; 137313</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>97995; 143856</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>110886; 164561</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>152084; 205221</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>224284; 287681</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>237365; 301554</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>232594; 318268</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>230934; 295516</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>325041; 402682</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>347734; 428015</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>357953; 473178</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
